--- a/Components/Adm_comp hsajdc/component_with_loading_file/Default.xlsx
+++ b/Components/Adm_comp hsajdc/component_with_loading_file/Default.xlsx
@@ -173,10 +173,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -483,7 +483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -502,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" customFormat="1"/>

--- a/Components/Adm_comp hsajdc/component_with_loading_file/Default.xlsx
+++ b/Components/Adm_comp hsajdc/component_with_loading_file/Default.xlsx
@@ -173,10 +173,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -483,7 +483,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.95"/>
   <cols>
-    <col min="1" max="16384" width="8.8984375" style="1" customWidth="1"/>
+    <col min="1" max="16384" width="8.8984375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1"/>
@@ -502,7 +502,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.1484375" style="2" customWidth="1"/>
+    <col min="1" max="16384" width="9.1484375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1" customFormat="1"/>
